--- a/app/src/main/assets/Earth Science.xlsx
+++ b/app/src/main/assets/Earth Science.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\FILES\Others\AcademicAlly Assessments\Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF2FDFC-252D-425C-A659-202D4A7400A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55541BB-BC86-4254-B2F1-C1AD276A20B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="180">
   <si>
     <t>The most popular theory of our Universe's origin centers on a cosmic cataclysm unmatched in all of history.  </t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>03 Handout 5</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -943,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,7 +962,7 @@
     <col min="6" max="6" width="63.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
@@ -981,8 +984,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>152</v>
       </c>
@@ -1004,8 +1010,11 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>152</v>
       </c>
@@ -1027,8 +1036,11 @@
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>152</v>
       </c>
@@ -1050,8 +1062,11 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
@@ -1073,8 +1088,11 @@
       <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -1096,8 +1114,11 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>176</v>
       </c>
@@ -1119,8 +1140,11 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1142,8 +1166,11 @@
       <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1165,8 +1192,11 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1188,8 +1218,11 @@
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>177</v>
       </c>
@@ -1211,8 +1244,11 @@
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>177</v>
       </c>
@@ -1234,8 +1270,11 @@
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>177</v>
       </c>
@@ -1257,8 +1296,11 @@
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>178</v>
       </c>
@@ -1280,8 +1322,11 @@
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>178</v>
       </c>
@@ -1303,8 +1348,11 @@
       <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>178</v>
       </c>
@@ -1326,8 +1374,11 @@
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>178</v>
       </c>
@@ -1349,8 +1400,11 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>178</v>
       </c>
@@ -1372,8 +1426,11 @@
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>178</v>
       </c>
@@ -1395,8 +1452,11 @@
       <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>178</v>
       </c>
@@ -1418,8 +1478,11 @@
       <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1428,7 +1491,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1437,7 +1500,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1446,7 +1509,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1455,7 +1518,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1464,7 +1527,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1473,7 +1536,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1482,7 +1545,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1491,7 +1554,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1500,7 +1563,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1509,7 +1572,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1518,7 +1581,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1804,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF01FD92-0058-4CCA-A1CA-401E20CF61BC}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,7 +1880,7 @@
     <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -1827,8 +1890,11 @@
       <c r="C1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1838,8 +1904,11 @@
       <c r="C2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -1849,8 +1918,11 @@
       <c r="C3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -1860,8 +1932,11 @@
       <c r="C4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -1871,8 +1946,11 @@
       <c r="C5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -1882,8 +1960,11 @@
       <c r="C6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1893,8 +1974,11 @@
       <c r="C7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -1904,8 +1988,11 @@
       <c r="C8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -1915,8 +2002,11 @@
       <c r="C9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -1926,8 +2016,11 @@
       <c r="C10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -1937,8 +2030,11 @@
       <c r="C11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -1948,8 +2044,11 @@
       <c r="C12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -1959,8 +2058,11 @@
       <c r="C13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -1970,8 +2072,11 @@
       <c r="C14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -1981,8 +2086,11 @@
       <c r="C15" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -1992,8 +2100,11 @@
       <c r="C16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -2003,8 +2114,11 @@
       <c r="C17" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -2014,8 +2128,11 @@
       <c r="C18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -2025,8 +2142,11 @@
       <c r="C19" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -2036,8 +2156,11 @@
       <c r="C20" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -2047,8 +2170,11 @@
       <c r="C21" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -2058,8 +2184,11 @@
       <c r="C22" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -2069,8 +2198,11 @@
       <c r="C23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -2079,6 +2211,9 @@
       </c>
       <c r="C24" t="s">
         <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2088,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33263EA-8986-4130-8A1C-650D7C353F82}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2100,7 +2235,7 @@
     <col min="2" max="2" width="109.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -2110,8 +2245,11 @@
       <c r="C1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -2121,8 +2259,11 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2132,8 +2273,11 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -2143,8 +2287,11 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -2154,8 +2301,11 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -2165,8 +2315,11 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -2176,8 +2329,11 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -2187,8 +2343,11 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -2198,8 +2357,11 @@
       <c r="C9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -2209,8 +2371,11 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -2220,8 +2385,11 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -2231,8 +2399,11 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -2242,8 +2413,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -2253,8 +2427,11 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>153</v>
       </c>
@@ -2264,8 +2441,11 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -2275,8 +2455,11 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -2286,8 +2469,11 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -2297,8 +2483,11 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -2308,8 +2497,11 @@
       <c r="C19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -2319,8 +2511,11 @@
       <c r="C20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -2330,8 +2525,11 @@
       <c r="C21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>157</v>
       </c>
@@ -2341,8 +2539,11 @@
       <c r="C22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -2352,8 +2553,11 @@
       <c r="C23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>158</v>
       </c>
@@ -2363,8 +2567,11 @@
       <c r="C24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -2374,8 +2581,11 @@
       <c r="C25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -2385,8 +2595,11 @@
       <c r="C26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -2396,8 +2609,11 @@
       <c r="C27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>160</v>
       </c>
@@ -2406,6 +2622,9 @@
       </c>
       <c r="C28" t="b">
         <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
